--- a/Documentação/Planilhas/Layouts/Margin_Today.xlsx
+++ b/Documentação/Planilhas/Layouts/Margin_Today.xlsx
@@ -4,19 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
-    <sheet name="aux_ods_approved" sheetId="207" r:id="rId2"/>
-    <sheet name="tmp_margin_today_LN" sheetId="235" r:id="rId3"/>
+    <sheet name="fact_margin_today" sheetId="242" r:id="rId2"/>
+    <sheet name="ods_margin_today" sheetId="240" r:id="rId3"/>
+    <sheet name="stg_margin_today" sheetId="236" r:id="rId4"/>
+    <sheet name="stg_margin_today_LN" sheetId="241" r:id="rId5"/>
+    <sheet name="tmp_margin_today" sheetId="239" r:id="rId6"/>
+    <sheet name="tmp_margin_today_LN" sheetId="235" r:id="rId7"/>
+    <sheet name="ods_flash_faturar" sheetId="244" r:id="rId8"/>
+    <sheet name="stg_fat_faturamento_today" sheetId="207" r:id="rId9"/>
+    <sheet name="stg_flash_fat" sheetId="243" r:id="rId10"/>
+    <sheet name="stg_margin_today_truncation" sheetId="237" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="459">
   <si>
     <t>Campo</t>
   </si>
@@ -772,6 +780,627 @@
   </si>
   <si>
     <t xml:space="preserve">loja.ods_tipo_frete_entrega </t>
+  </si>
+  <si>
+    <t>Identifica a data e hora no formato AAAA-MM-DD HH:MM:SSS</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através da sua descrição</t>
+  </si>
+  <si>
+    <t>Identifica o Canal de Venda através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica a data da fatura no formato AAAA-MM-DD</t>
+  </si>
+  <si>
+    <t>Identifica a hora da fatura no formato HH:MM:SSSS</t>
+  </si>
+  <si>
+    <t>Identifica a data da entrega no formato AAAA-MM-DD</t>
+  </si>
+  <si>
+    <t>Quantidade de itens faturados</t>
+  </si>
+  <si>
+    <t>Valor do Frete Cliente</t>
+  </si>
+  <si>
+    <t>Valor do Frete companhia</t>
+  </si>
+  <si>
+    <t>Valor do Desconto Condicional</t>
+  </si>
+  <si>
+    <t>Valor das Despesas Acessórias</t>
+  </si>
+  <si>
+    <t>Valor do Custo Médio de Vendas</t>
+  </si>
+  <si>
+    <t>Valor do ICMS Frete</t>
+  </si>
+  <si>
+    <t>Valor do PIS Frete</t>
+  </si>
+  <si>
+    <t>Valor do CSLL Frete</t>
+  </si>
+  <si>
+    <t>Valor do COFINS Frete</t>
+  </si>
+  <si>
+    <t>Valor do ICMS Produto</t>
+  </si>
+  <si>
+    <t>Valor do PIS Produto</t>
+  </si>
+  <si>
+    <t>Valor do CSLL Produto</t>
+  </si>
+  <si>
+    <t>Valor do COFINS Produto</t>
+  </si>
+  <si>
+    <t>Valor do ICMS ST</t>
+  </si>
+  <si>
+    <t>Identifica a Lista de Casamento através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica a ordem de venda através do seu número</t>
+  </si>
+  <si>
+    <t>Identifica a data da compra no formato AAAA-MM-DD HH:MM:SSS</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Cliente Faturado através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica a Campanha B2B através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica o Contrato B2B através do seu código</t>
+  </si>
+  <si>
+    <t>[com].[stg_margin_today]</t>
+  </si>
+  <si>
+    <t>IN_LISTA_CASAMENTO</t>
+  </si>
+  <si>
+    <t>IN_FRETE_GRATIS</t>
+  </si>
+  <si>
+    <t>VL_RECEITA_LIQUIDA</t>
+  </si>
+  <si>
+    <t>PED_CLIENTE</t>
+  </si>
+  <si>
+    <t>Identifica a Filial através do seu código. Ex: 4, 10, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código. Ex: fuji, b2c pf, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através da sua descrição. Ex: Site, etc</t>
+  </si>
+  <si>
+    <t>Identifica a hora da fatura no formato HHMM</t>
+  </si>
+  <si>
+    <t>Identifica a data da emissão no formato AAAA-MM-DD HH:MM:SSS</t>
+  </si>
+  <si>
+    <t>Identifica a Entrega através do seu código. Ex: 5601819701, 5650905701, etc</t>
+  </si>
+  <si>
+    <t>Identifica o item através do seu código. Ex: 1763508, 3112344, 46703, etc</t>
+  </si>
+  <si>
+    <t>Identifica o item através da sua descrição. Ex: FILME INSTAX PACK COM 20 FUJIFILM, ROTEADOR WIRELESS 300MBPS TL WR841N BR TP LINK, REF FF 2P BRM39 352L BR 110V BRASTEMP, etc</t>
+  </si>
+  <si>
+    <t>Identifica o item através da sua descrição. Ex: Cine &amp; Foto, Acessórios e Periféricos, Eletrodomésticos, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Departamento através da sua descrição. Ex: Acessórios, Informática, Refrigeradores, etc</t>
+  </si>
+  <si>
+    <t>Identifica o País da entrega através da sua descrição. Ex: BRA, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade Federativa da entrega através da sua sigla. Ex: PR, RN, SP, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Cidade da entrega através da sua descrição. Ex: BRASILIA, OSASCO, SAO PAULO, etc</t>
+  </si>
+  <si>
+    <t>Identifica a transportadora através do seu CNPJ sem qualquer separador. Ex: 17638271001737, 34028316000103, 10312706000576, etc</t>
+  </si>
+  <si>
+    <t>Identifica a transportadora através da sua descrição. Ex: SETE SERVICOS DE ENTREGA DE TITULOS E EM, EMPRESA BRASILEIRA DE CORREIOS E TELEGRA, VENTO NORTE TRANSPORTES LTDA, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Entrega através da sua descrição. Ex: Normal, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Transporte através da sua descrição. Ex: Leve, Pesado, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Campanha através da sua descrição. Ex: Descontoespecial, 20141227_Natalpf, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Mídia através da sua descrição. Ex: Buscaorganica, Principal, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Parceiro através do seu código. Ex: Google, Pontofrionews</t>
+  </si>
+  <si>
+    <t>Identifica o fornecedor através do seu CNPJ sem qualquer separador. Ex: 160397874000156, 12667763000250, 59105999003959, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Fornecedor através da sua descrição. Ex: FUJIFILM DO BRASIL LTDA, TP LINK TECNOLOGIA DO BRASIL LTDA, WHIRLPOOL S A, etc</t>
+  </si>
+  <si>
+    <t>Identifica se o item faz parte de uma Lista de Casamento (S/N)</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Venda através do seu código. Ex: B2B, B2C, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Meio de Pagamento através da sua descrição. Ex: Boleto, Cartão de Crédito, etc</t>
+  </si>
+  <si>
+    <t>Identifica se a venda terá frete grátis (S/N)</t>
+  </si>
+  <si>
+    <t>Valor da Receita Líquida</t>
+  </si>
+  <si>
+    <t>Identifica o Pedido do cliente através do seu número. Ex: 56018197, 56509057, 56224642, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Cliente Faturado através do seu código. Ex: 1, 2, etc</t>
+  </si>
+  <si>
+    <t>com.tmp_margin_today_LN</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_margin_today_truncation]</t>
+  </si>
+  <si>
+    <t>HR_FATURA_INT</t>
+  </si>
+  <si>
+    <t>DATA_HORA_MAX</t>
+  </si>
+  <si>
+    <t>ErrorCode</t>
+  </si>
+  <si>
+    <t>ErrorColumn</t>
+  </si>
+  <si>
+    <t>Identifica a Campanha através da sua descrição. Ex: PM Tele S5 Samsung, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Cidade da entrega através da sua descrição. Ex: Rio de Janeiro, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Data e Hora Máxima no formato AAAA-MM-DD HH:MM:SSS</t>
+  </si>
+  <si>
+    <t>Identifica a data da fatura no formato AAAA-MM-DD HH:MM:SSS</t>
+  </si>
+  <si>
+    <t>Identifica a Ordem de Vendas através do seu número. Ex: 40786970, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Erro através do seu código. Ex: -1071628257, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Coluna de erro através do seu código. Ex: 569, etc</t>
+  </si>
+  <si>
+    <t>[com].[tmp_margin_today]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Margin Today Prod\Margin Today\stg_margin_today.dtsx</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através da sua descrição. Ex: fuji, b2c pf, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código. Ex: 5, 1, 7, etc</t>
+  </si>
+  <si>
+    <t>SIGE02</t>
+  </si>
+  <si>
+    <t>pedido_de_venda_detalhes</t>
+  </si>
+  <si>
+    <t>v_dw_fat_v3</t>
+  </si>
+  <si>
+    <t>nota_fiscal_detalhe</t>
+  </si>
+  <si>
+    <t>nota_fiscal_cabecalho</t>
+  </si>
+  <si>
+    <t>v_dw_orders_detail_v3</t>
+  </si>
+  <si>
+    <t>item_geral</t>
+  </si>
+  <si>
+    <t>departamento</t>
+  </si>
+  <si>
+    <t>setor</t>
+  </si>
+  <si>
+    <t>pedido_de_venda_cabecalho</t>
+  </si>
+  <si>
+    <t>terceiro_corporativo</t>
+  </si>
+  <si>
+    <t>tipo_entrega</t>
+  </si>
+  <si>
+    <t>gte_tipo_transporte</t>
+  </si>
+  <si>
+    <t>meio_pagamento</t>
+  </si>
+  <si>
+    <t>unidade_de_negocios</t>
+  </si>
+  <si>
+    <t>com.tmp_margin_today</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Margin Today Prod\Margin Today\stg_margin_today_ln.dtsx e stg_margin_today.dtsx</t>
+  </si>
+  <si>
+    <t>[com].[ods_margin_today]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Margin Today Prod\Margin Today\ods_margin_today.dtsx</t>
+  </si>
+  <si>
+    <t>ID_PARCEIRO_B2B</t>
+  </si>
+  <si>
+    <t>NR_CLIENT_TYPE</t>
+  </si>
+  <si>
+    <t>Identifica o Parceiro B2B através do seu código</t>
+  </si>
+  <si>
+    <t>com.stg_margin_today_LN</t>
+  </si>
+  <si>
+    <t>com.stg_margin_today</t>
+  </si>
+  <si>
+    <t>[com].[stg_margin_today_LN]</t>
+  </si>
+  <si>
+    <t>[com].[fact_margin_today]</t>
+  </si>
+  <si>
+    <t>MIS_DATA_WAREHOUSE</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Margin Today Prod\Margin Today\dw_margin_today.dtsx</t>
+  </si>
+  <si>
+    <t>ped_cliente</t>
+  </si>
+  <si>
+    <t>id_entrega</t>
+  </si>
+  <si>
+    <t>nr_id_unidade_negocio</t>
+  </si>
+  <si>
+    <t>nr_id_cia</t>
+  </si>
+  <si>
+    <t>nr_id_filial</t>
+  </si>
+  <si>
+    <t>nr_canal_venda</t>
+  </si>
+  <si>
+    <t>nr_product_sku</t>
+  </si>
+  <si>
+    <t>nr_item_sku</t>
+  </si>
+  <si>
+    <t>nr_id_endereco</t>
+  </si>
+  <si>
+    <t>id_transportadora</t>
+  </si>
+  <si>
+    <t>nr_id_campanha</t>
+  </si>
+  <si>
+    <t>nr_id_midia</t>
+  </si>
+  <si>
+    <t>nr_id_parceiro</t>
+  </si>
+  <si>
+    <t>descr_meio_pagto</t>
+  </si>
+  <si>
+    <t>dt_fatura</t>
+  </si>
+  <si>
+    <t>nr_time</t>
+  </si>
+  <si>
+    <t>data_hora</t>
+  </si>
+  <si>
+    <t>dt_emissao</t>
+  </si>
+  <si>
+    <t>qt_prod</t>
+  </si>
+  <si>
+    <t>vl_prod</t>
+  </si>
+  <si>
+    <t>vl_frete_cliente</t>
+  </si>
+  <si>
+    <t>vl_frete_cia</t>
+  </si>
+  <si>
+    <t>vl_desconto</t>
+  </si>
+  <si>
+    <t>vl_desc_inc</t>
+  </si>
+  <si>
+    <t>vl_desc_cond</t>
+  </si>
+  <si>
+    <t>vl_juros</t>
+  </si>
+  <si>
+    <t>vl_acessorio</t>
+  </si>
+  <si>
+    <t>vl_cmv</t>
+  </si>
+  <si>
+    <t>vl_icms</t>
+  </si>
+  <si>
+    <t>vl_pis</t>
+  </si>
+  <si>
+    <t>vl_csll</t>
+  </si>
+  <si>
+    <t>vl_cofins</t>
+  </si>
+  <si>
+    <t>vl_icms_frete</t>
+  </si>
+  <si>
+    <t>vl_pis_frete</t>
+  </si>
+  <si>
+    <t>vl_csll_frete</t>
+  </si>
+  <si>
+    <t>vl_cofins_frete</t>
+  </si>
+  <si>
+    <t>vl_icms_prod</t>
+  </si>
+  <si>
+    <t>vl_pis_prod</t>
+  </si>
+  <si>
+    <t>vl_csll_prod</t>
+  </si>
+  <si>
+    <t>vl_cofins_prod</t>
+  </si>
+  <si>
+    <t>vl_icms_outros</t>
+  </si>
+  <si>
+    <t>vl_pis_outros</t>
+  </si>
+  <si>
+    <t>vl_csll_outros</t>
+  </si>
+  <si>
+    <t>vl_cofins_outros</t>
+  </si>
+  <si>
+    <t>vl_icms_st</t>
+  </si>
+  <si>
+    <t>vl_item_total</t>
+  </si>
+  <si>
+    <t>vl_receita_liquida</t>
+  </si>
+  <si>
+    <t>in_lista_casamento</t>
+  </si>
+  <si>
+    <t>in_frete_gratis</t>
+  </si>
+  <si>
+    <t>data_compra</t>
+  </si>
+  <si>
+    <t>id_parceiro_b2b</t>
+  </si>
+  <si>
+    <t>id_contrato_b2b</t>
+  </si>
+  <si>
+    <t>id_campanha_b2b</t>
+  </si>
+  <si>
+    <t>id_tipo_cliente</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código. Ex: 13, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código. Ex: 1, 7, etc</t>
+  </si>
+  <si>
+    <t>Identifica o produto sku através do seu código. Ex: 1763508, 3112344, 46703, etc</t>
+  </si>
+  <si>
+    <t>Identifica o item sku através do seu código. Ex: 1763508, 3112344, 46703, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Campanha através do seu código. Ex: 0, 3749, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Mídia através do seu código. Ex: 0, 1477, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Parceiro através do seu código. Ex: 0, 277, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data da fatura no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a data através do seu código interno. Ex: 715, 926, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data da emissão no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica se o item faz parte de uma Lista de Casamento (0/1)</t>
+  </si>
+  <si>
+    <t>Identifica se a venda terá frete grátis (0/1)</t>
+  </si>
+  <si>
+    <t>Identifica o Endereço de Entrega através do seu código. Ex: 6258, 3481, etc</t>
+  </si>
+  <si>
+    <t>ods_margin_today</t>
+  </si>
+  <si>
+    <t>MIS_DW</t>
+  </si>
+  <si>
+    <t>dim_estabelecimento</t>
+  </si>
+  <si>
+    <t>dim_midia</t>
+  </si>
+  <si>
+    <t>dim_campanha</t>
+  </si>
+  <si>
+    <t>dim_parceiro</t>
+  </si>
+  <si>
+    <t>dim_unidade_negocio</t>
+  </si>
+  <si>
+    <t>dim_canal_venda</t>
+  </si>
+  <si>
+    <t>dim.dim_produto</t>
+  </si>
+  <si>
+    <t>dim_endereco</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_flash_fat]</t>
+  </si>
+  <si>
+    <t>MIS_RELATORIO</t>
+  </si>
+  <si>
+    <t>PEDC_ID_UNINEG</t>
+  </si>
+  <si>
+    <t>PEDC_ID_PEDIDO</t>
+  </si>
+  <si>
+    <t>PEDC_DT_LIMITE_EXP</t>
+  </si>
+  <si>
+    <t>PEDC_ID_FILIAL</t>
+  </si>
+  <si>
+    <t>PRODUTO</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Margin Today Prod\Margin Today\stg_flash_fat.dtsx</t>
+  </si>
+  <si>
+    <t>Identifica a Data Limite da Expedição no formato AAAA-MM-DD HH:MM:SSS</t>
+  </si>
+  <si>
+    <t>Identifica a Filial através do seu código. Ex: 10, 6, etc</t>
+  </si>
+  <si>
+    <t>pfrios.pedido_de_venda_cabecalho</t>
+  </si>
+  <si>
+    <t>SIGE</t>
+  </si>
+  <si>
+    <t>pfrios.pedido_de_venda_detalhes</t>
+  </si>
+  <si>
+    <t>pfrios.sac_referencia_documental</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_flash_faturar]</t>
+  </si>
+  <si>
+    <t>id_filial</t>
+  </si>
+  <si>
+    <t>dt_limite_exp</t>
+  </si>
+  <si>
+    <t>qtde</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>id_unineg</t>
+  </si>
+  <si>
+    <t>Valor do Produto a Faturar</t>
+  </si>
+  <si>
+    <t>stg_flash_fat</t>
+  </si>
+  <si>
+    <t>Quantidade de Pedidos a Faturar</t>
   </si>
 </sst>
 </file>
@@ -830,7 +1459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1064,6 +1693,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1119,10 +1772,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1133,6 +1782,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1200,7 +1855,367 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1530,18 +2545,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E96"/>
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.140625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1562,71 +2580,152 @@
     </row>
     <row r="3" spans="2:5" ht="15">
       <c r="B3" s="21" t="str">
-        <f>aux_ods_approved!B9</f>
+        <f>fact_margin_today!B9</f>
+        <v>[com].[fact_margin_today]</v>
+      </c>
+      <c r="C3" s="18" t="str">
+        <f>fact_margin_today!B8</f>
+        <v>MIS_DATA_WAREHOUSE</v>
+      </c>
+      <c r="D3" s="19" t="str">
+        <f>fact_margin_today!B10</f>
+        <v>N:\Migracao\Margin Today Prod\Margin Today\dw_margin_today.dtsx</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="2:5" ht="15">
+      <c r="B4" s="21" t="str">
+        <f>ods_margin_today!B9</f>
+        <v>[com].[ods_margin_today]</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f>ods_margin_today!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D4" s="19" t="str">
+        <f>ods_margin_today!B10</f>
+        <v>N:\Migracao\Margin Today Prod\Margin Today\ods_margin_today.dtsx</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="2:5" ht="15">
+      <c r="B5" s="21" t="str">
+        <f>ods_flash_faturar!B9</f>
+        <v>[dbo].[ods_flash_faturar]</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>ods_flash_faturar!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D5" s="19" t="str">
+        <f>ods_flash_faturar!B10</f>
+        <v>N:\Migracao\Margin Today Prod\Margin Today\stg_flash_fat.dtsx</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="2:5" ht="15">
+      <c r="B6" s="21" t="str">
+        <f>stg_flash_fat!B9</f>
+        <v>[dbo].[stg_flash_fat]</v>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>stg_flash_fat!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D6" s="19" t="str">
+        <f>stg_flash_fat!B10</f>
+        <v>N:\Migracao\Margin Today Prod\Margin Today\stg_flash_fat.dtsx</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="2:5" ht="15">
+      <c r="B7" s="21" t="str">
+        <f>stg_margin_today!B9</f>
+        <v>[com].[stg_margin_today]</v>
+      </c>
+      <c r="C7" s="18" t="str">
+        <f>stg_margin_today!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D7" s="19" t="str">
+        <f>stg_margin_today!B10</f>
+        <v>N:\Migracao\Margin Today Prod\Margin Today\stg_margin_today.dtsx</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="2:5" ht="15">
+      <c r="B8" s="21" t="str">
+        <f>tmp_margin_today!B9</f>
+        <v>[com].[tmp_margin_today]</v>
+      </c>
+      <c r="C8" s="18" t="str">
+        <f>tmp_margin_today!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D8" s="19" t="str">
+        <f>tmp_margin_today!B10</f>
+        <v>N:\Migracao\Margin Today Prod\Margin Today\stg_margin_today.dtsx</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="2:5" ht="15">
+      <c r="B9" s="21" t="str">
+        <f>stg_margin_today_LN!B9</f>
+        <v>[com].[stg_margin_today_LN]</v>
+      </c>
+      <c r="C9" s="18" t="str">
+        <f>stg_margin_today_LN!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D9" s="19" t="str">
+        <f>stg_margin_today_LN!B10</f>
+        <v>N:\Migracao\Margin Today Prod\Margin Today\stg_margin_today_ln.dtsx</v>
+      </c>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="2:5" ht="15">
+      <c r="B10" s="21" t="str">
+        <f>tmp_margin_today_LN!B9</f>
+        <v>[com].[tmp_margin_today_LN]</v>
+      </c>
+      <c r="C10" s="18" t="str">
+        <f>tmp_margin_today_LN!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D10" s="19" t="str">
+        <f>tmp_margin_today_LN!B10</f>
+        <v>N:\Migracao\Margin Today Prod\Margin Today\stg_margin_today_ln.dtsx</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="2:5" ht="15">
+      <c r="B11" s="21" t="str">
+        <f>stg_fat_faturamento_today!B9</f>
         <v>[dbo].[stg_fat_faturamento_today]</v>
       </c>
-      <c r="C3" s="18" t="str">
-        <f>aux_ods_approved!B8</f>
+      <c r="C11" s="18" t="str">
+        <f>stg_fat_faturamento_today!B8</f>
         <v>MIS_MIGRACAO</v>
       </c>
-      <c r="D3" s="19" t="str">
-        <f>aux_ods_approved!B10</f>
+      <c r="D11" s="19" t="str">
+        <f>stg_fat_faturamento_today!B10</f>
         <v>N:\Migracao\Margin Today Prod\Margin Today\stg_margin_today_ln.dtsx</v>
       </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="2:5" ht="15">
-      <c r="B4" s="21"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="2:5" ht="15">
-      <c r="B5" s="21"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="2:5" ht="15">
-      <c r="B6" s="21"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="2:5" ht="15">
-      <c r="B7" s="21"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="2:5" ht="15">
-      <c r="B8" s="21"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="2:5" ht="15">
-      <c r="B9" s="21"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="2:5" ht="15">
-      <c r="B10" s="21"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="2:5" ht="15">
-      <c r="B11" s="21"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="2:5" ht="15">
-      <c r="B12" s="21"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="21" t="str">
+        <f>stg_margin_today_truncation!B9</f>
+        <v>[dbo].[stg_margin_today_truncation]</v>
+      </c>
+      <c r="C12" s="18" t="str">
+        <f>stg_margin_today_truncation!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D12" s="19" t="str">
+        <f>stg_margin_today_truncation!B10</f>
+        <v>N:\Migracao\Margin Today Prod\Margin Today\stg_margin_today_ln.dtsx e stg_margin_today.dtsx</v>
+      </c>
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="2:5" ht="15">
@@ -1635,512 +2734,769 @@
       <c r="D13" s="19"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="2:5" ht="15">
-      <c r="B14" s="21"/>
+    <row r="14" spans="2:5">
+      <c r="B14" s="20"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="2:5" ht="15">
-      <c r="B15" s="21"/>
+    <row r="15" spans="2:5">
+      <c r="B15" s="12"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="2:5" ht="15">
-      <c r="B16" s="21"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="2:5" ht="15">
-      <c r="B17" s="21"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="2:5" ht="15">
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="2:5" ht="15">
-      <c r="B19" s="21"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="2:5" ht="15">
-      <c r="B20" s="21"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="2:5" ht="15">
-      <c r="B21" s="21"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="2:5" ht="15">
-      <c r="B22" s="21"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="2:5" ht="15">
-      <c r="B23" s="21"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="2:5" ht="15">
-      <c r="B24" s="21"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="2:5" ht="15">
-      <c r="B25" s="21"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="2:5" ht="15">
-      <c r="B26" s="21"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="2:5" ht="15">
-      <c r="B27" s="21"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="2:5" ht="15">
-      <c r="B28" s="21"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="2:5" ht="15">
-      <c r="B29" s="21"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="2:5" ht="15">
-      <c r="B30" s="21"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="2:5" ht="15">
-      <c r="B31" s="21"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="2:5" ht="15">
-      <c r="B32" s="21"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="2:5" ht="15">
-      <c r="B33" s="21"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="2:5" ht="15">
-      <c r="B34" s="21"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="2:5" ht="15">
-      <c r="B35" s="21"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="2:5" ht="15">
-      <c r="B36" s="21"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="2:5" ht="15">
-      <c r="B37" s="21"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="2:5" ht="15">
-      <c r="B38" s="21"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="2:5" ht="15">
-      <c r="B39" s="21"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="2:5" ht="15">
-      <c r="B40" s="21"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="2:5" ht="15">
-      <c r="B41" s="21"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="2:5" ht="15">
-      <c r="B42" s="21"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="2:5" ht="15">
-      <c r="B43" s="21"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" spans="2:5" ht="15">
-      <c r="B44" s="21"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="2:5" ht="15">
-      <c r="B45" s="21"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="2:5" ht="15">
-      <c r="B46" s="21"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="2:5" ht="15">
-      <c r="B47" s="21"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="2:5" ht="15">
-      <c r="B48" s="21"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" spans="2:5" ht="15">
-      <c r="B49" s="21"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" spans="2:5" ht="15">
-      <c r="B50" s="21"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="13"/>
-    </row>
-    <row r="51" spans="2:5" ht="15">
-      <c r="B51" s="21"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" spans="2:5" ht="15">
-      <c r="B52" s="21"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="2:5" ht="15">
-      <c r="B53" s="21"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="13"/>
-    </row>
-    <row r="54" spans="2:5" ht="15">
-      <c r="B54" s="21"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="13"/>
-    </row>
-    <row r="55" spans="2:5" ht="15">
-      <c r="B55" s="21"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="13"/>
-    </row>
-    <row r="56" spans="2:5" ht="15">
-      <c r="B56" s="21"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="13"/>
-    </row>
-    <row r="57" spans="2:5" ht="15">
-      <c r="B57" s="21"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="2:5" ht="15">
-      <c r="B58" s="21"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="13"/>
-    </row>
-    <row r="59" spans="2:5" ht="15">
-      <c r="B59" s="21"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="13"/>
-    </row>
-    <row r="60" spans="2:5" ht="15">
-      <c r="B60" s="21"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="13"/>
-    </row>
-    <row r="61" spans="2:5" ht="15">
-      <c r="B61" s="21"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="13"/>
-    </row>
-    <row r="62" spans="2:5" ht="15">
-      <c r="B62" s="21"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="13"/>
-    </row>
-    <row r="63" spans="2:5" ht="15">
-      <c r="B63" s="21"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="13"/>
-    </row>
-    <row r="64" spans="2:5" ht="15">
-      <c r="B64" s="21"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="13"/>
-    </row>
-    <row r="65" spans="2:5" ht="15">
-      <c r="B65" s="21"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="13"/>
-    </row>
-    <row r="66" spans="2:5" ht="15">
-      <c r="B66" s="21"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="13"/>
-    </row>
-    <row r="67" spans="2:5" ht="15">
-      <c r="B67" s="21"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="13"/>
-    </row>
-    <row r="68" spans="2:5" ht="15">
-      <c r="B68" s="21"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="13"/>
-    </row>
-    <row r="69" spans="2:5" ht="15">
-      <c r="B69" s="21"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="13"/>
-    </row>
-    <row r="70" spans="2:5" ht="15">
-      <c r="B70" s="21"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="13"/>
-    </row>
-    <row r="71" spans="2:5" ht="15">
-      <c r="B71" s="21"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="13"/>
-    </row>
-    <row r="72" spans="2:5" ht="15">
-      <c r="B72" s="21"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="13"/>
-    </row>
-    <row r="73" spans="2:5" ht="15">
-      <c r="B73" s="21"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="13"/>
-    </row>
-    <row r="74" spans="2:5" ht="15">
-      <c r="B74" s="21"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="13"/>
-    </row>
-    <row r="75" spans="2:5" ht="15">
-      <c r="B75" s="21"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="13"/>
-    </row>
-    <row r="76" spans="2:5" ht="15">
-      <c r="B76" s="21"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="13"/>
-    </row>
-    <row r="77" spans="2:5" ht="15">
-      <c r="B77" s="21"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="13"/>
-    </row>
-    <row r="78" spans="2:5" ht="15">
-      <c r="B78" s="23"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="13"/>
-    </row>
-    <row r="79" spans="2:5" ht="15">
-      <c r="B79" s="21"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="13"/>
-    </row>
-    <row r="80" spans="2:5" ht="15">
-      <c r="B80" s="21"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="13"/>
-    </row>
-    <row r="81" spans="2:5" ht="15">
-      <c r="B81" s="21"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="13"/>
-    </row>
-    <row r="82" spans="2:5" ht="15">
-      <c r="B82" s="21"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="13"/>
-    </row>
-    <row r="83" spans="2:5" ht="15">
-      <c r="B83" s="21"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="13"/>
-    </row>
-    <row r="84" spans="2:5" ht="15">
-      <c r="B84" s="21"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="13"/>
-    </row>
-    <row r="85" spans="2:5" ht="15">
-      <c r="B85" s="21"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="13"/>
-    </row>
-    <row r="86" spans="2:5" ht="15">
-      <c r="B86" s="21"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="13"/>
-    </row>
-    <row r="87" spans="2:5" ht="15">
-      <c r="B87" s="21"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="13"/>
-    </row>
-    <row r="88" spans="2:5" ht="15">
-      <c r="B88" s="21"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="13"/>
-    </row>
-    <row r="89" spans="2:5" ht="15">
-      <c r="B89" s="21"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="13"/>
-    </row>
-    <row r="90" spans="2:5" ht="15">
-      <c r="B90" s="21"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="13"/>
-    </row>
-    <row r="91" spans="2:5" ht="15">
-      <c r="B91" s="21"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="13"/>
-    </row>
-    <row r="92" spans="2:5" ht="15">
-      <c r="B92" s="21"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="13"/>
-    </row>
-    <row r="93" spans="2:5" ht="15">
-      <c r="B93" s="21"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="13"/>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94" s="20"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="13"/>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="B95" s="12"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="13"/>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96" s="14"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="16"/>
+    <row r="16" spans="2:5">
+      <c r="B16" s="14"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="B3:E66">
-    <sortCondition ref="B3"/>
+  <sortState ref="B3:E12">
+    <sortCondition ref="D3"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B3" location="aux_ods_approved!A1" display="aux_ods_approved!A1"/>
+    <hyperlink ref="B11" location="stg_fat_faturamento_today!A1" display="stg_fat_faturamento_today!A1"/>
+    <hyperlink ref="B10" location="tmp_margin_today_LN!A1" display="tmp_margin_today_LN!A1"/>
+    <hyperlink ref="B7" location="stg_margin_today!A1" display="stg_margin_today!A1"/>
+    <hyperlink ref="B12" location="stg_margin_today_truncation!A1" display="stg_margin_today_truncation!A1"/>
+    <hyperlink ref="B8" location="tmp_margin_today!A1" display="tmp_margin_today!A1"/>
+    <hyperlink ref="B9" location="stg_margin_today_LN!A1" display="stg_margin_today_LN!A1"/>
+    <hyperlink ref="B4" location="ods_margin_today!A1" display="ods_margin_today!A1"/>
+    <hyperlink ref="B3" location="fact_margin_today!A1" display="fact_margin_today!A1"/>
+    <hyperlink ref="B6" location="stg_flash_fat!A1" display="stg_flash_fat!A1"/>
+    <hyperlink ref="B5" location="ods_flash_faturar!A1" display="ods_flash_faturar!A1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E73"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" customHeight="1">
+      <c r="A52" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" customHeight="1">
+      <c r="A53" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" customHeight="1">
+      <c r="A54" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" customHeight="1">
+      <c r="A55" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" customHeight="1">
+      <c r="A56" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" customHeight="1">
+      <c r="A57" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" customHeight="1">
+      <c r="A58" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" customHeight="1">
+      <c r="A59" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" customHeight="1">
+      <c r="A60" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" customHeight="1">
+      <c r="A61" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" customHeight="1">
+      <c r="A62" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" customHeight="1">
+      <c r="A63" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" customHeight="1">
+      <c r="A64" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30" customHeight="1">
+      <c r="A65" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" customHeight="1">
+      <c r="A66" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" customHeight="1">
+      <c r="A67" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30" customHeight="1">
+      <c r="A68" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" customHeight="1">
+      <c r="A69" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30" customHeight="1">
+      <c r="A70" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" customHeight="1">
+      <c r="A71" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30" customHeight="1">
+      <c r="A72" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" customHeight="1">
+      <c r="A73" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2149,10 +3505,1190 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E67"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" customHeight="1">
+      <c r="A52" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" customHeight="1">
+      <c r="A53" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" customHeight="1">
+      <c r="A54" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" customHeight="1">
+      <c r="A55" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" customHeight="1">
+      <c r="A56" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" customHeight="1">
+      <c r="A57" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" customHeight="1">
+      <c r="A58" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" customHeight="1">
+      <c r="A59" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" customHeight="1">
+      <c r="A60" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" customHeight="1">
+      <c r="A61" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" customHeight="1">
+      <c r="A62" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" customHeight="1">
+      <c r="A63" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" customHeight="1">
+      <c r="A64" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30" customHeight="1">
+      <c r="A65" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" customHeight="1">
+      <c r="A66" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" customHeight="1">
+      <c r="A67" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E76"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" customHeight="1">
+      <c r="A52" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" customHeight="1">
+      <c r="A53" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" customHeight="1">
+      <c r="A54" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" customHeight="1">
+      <c r="A55" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" customHeight="1">
+      <c r="A56" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" customHeight="1">
+      <c r="A57" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="38.25">
+      <c r="A58" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" customHeight="1">
+      <c r="A59" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" customHeight="1">
+      <c r="A60" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" customHeight="1">
+      <c r="A61" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" customHeight="1">
+      <c r="A62" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" customHeight="1">
+      <c r="A63" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" customHeight="1">
+      <c r="A64" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30" customHeight="1">
+      <c r="A65" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" customHeight="1">
+      <c r="A66" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" customHeight="1">
+      <c r="A67" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30" customHeight="1">
+      <c r="A68" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" customHeight="1">
+      <c r="A69" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30" customHeight="1">
+      <c r="A70" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" customHeight="1">
+      <c r="A71" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30" customHeight="1">
+      <c r="A72" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" customHeight="1">
+      <c r="A73" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30" customHeight="1">
+      <c r="A74" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" customHeight="1">
+      <c r="A75" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30" customHeight="1">
+      <c r="A76" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2191,7 +4727,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2199,7 +4735,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2207,7 +4743,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2226,715 +4762,509 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>134</v>
+      <c r="A14" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>252</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>196</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>197</v>
-      </c>
+      <c r="A15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="26" t="s">
+      <c r="A16" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>151</v>
+      <c r="B18" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" customHeight="1">
-      <c r="A33" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>152</v>
+      <c r="A33" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" customHeight="1">
-      <c r="A34" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>153</v>
+      <c r="A34" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" customHeight="1">
-      <c r="A35" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>166</v>
+      <c r="A35" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" customHeight="1">
-      <c r="A36" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>154</v>
+      <c r="A36" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" customHeight="1">
-      <c r="A37" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>155</v>
+      <c r="A37" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" customHeight="1">
-      <c r="A38" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>156</v>
+      <c r="A38" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" customHeight="1">
-      <c r="A39" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>23</v>
+      <c r="A39" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30" customHeight="1">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" customHeight="1">
+      <c r="A52" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="30" customHeight="1">
-      <c r="A41" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" customHeight="1">
-      <c r="A42" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30" customHeight="1">
-      <c r="A43" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30" customHeight="1">
-      <c r="A44" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30" customHeight="1">
-      <c r="A45" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30" customHeight="1">
-      <c r="A46" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="24" t="s">
+      <c r="B52" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" customHeight="1">
+      <c r="A53" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" customHeight="1">
-      <c r="A47" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="30" customHeight="1">
-      <c r="A48" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="30" customHeight="1">
-      <c r="A49" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30" customHeight="1">
-      <c r="A50" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30" customHeight="1">
-      <c r="A51" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="30" customHeight="1">
-      <c r="A52" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
     <row r="54" spans="1:2" ht="30" customHeight="1">
-      <c r="A54" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>161</v>
+      <c r="A54" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30" customHeight="1">
-      <c r="A55" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>32</v>
+      <c r="A55" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30" customHeight="1">
-      <c r="A56" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>162</v>
+      <c r="A56" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30" customHeight="1">
-      <c r="A57" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="30" customHeight="1">
-      <c r="A58" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>33</v>
+      <c r="A57" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="38.25">
+      <c r="A58" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30" customHeight="1">
-      <c r="A59" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>34</v>
+      <c r="A59" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30" customHeight="1">
-      <c r="A60" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>164</v>
+      <c r="A60" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="30" customHeight="1">
-      <c r="A61" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>165</v>
+      <c r="A61" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30" customHeight="1">
-      <c r="A62" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>35</v>
+      <c r="A62" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="30" customHeight="1">
-      <c r="A63" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>36</v>
+      <c r="A63" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30" customHeight="1">
-      <c r="A64" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>50</v>
+      <c r="A64" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="30" customHeight="1">
-      <c r="A65" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>167</v>
+      <c r="A65" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30" customHeight="1">
-      <c r="A66" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>168</v>
+      <c r="A66" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30" customHeight="1">
-      <c r="A67" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>169</v>
+      <c r="A67" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="30" customHeight="1">
-      <c r="A68" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>37</v>
+      <c r="A68" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="30" customHeight="1">
-      <c r="A69" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>41</v>
+      <c r="A69" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30" customHeight="1">
-      <c r="A70" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>170</v>
+      <c r="A70" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="30" customHeight="1">
-      <c r="A71" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>171</v>
+      <c r="A71" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="30" customHeight="1">
-      <c r="A72" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>172</v>
+      <c r="A72" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30" customHeight="1">
-      <c r="A73" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>68</v>
+      <c r="A73" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="30" customHeight="1">
-      <c r="A74" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>173</v>
+      <c r="A74" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30" customHeight="1">
-      <c r="A75" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="30" customHeight="1">
-      <c r="A76" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="30" customHeight="1">
-      <c r="A77" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="30" customHeight="1">
-      <c r="A78" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="30" customHeight="1">
-      <c r="A79" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="30" customHeight="1">
-      <c r="A80" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="30" customHeight="1">
-      <c r="A81" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="30" customHeight="1">
-      <c r="A82" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="30" customHeight="1">
-      <c r="A83" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="30" customHeight="1">
-      <c r="A84" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="30" customHeight="1">
-      <c r="A85" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="30" customHeight="1">
-      <c r="A86" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="30" customHeight="1">
-      <c r="A87" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B87" s="24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="30" customHeight="1">
-      <c r="A88" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B88" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="30" customHeight="1">
-      <c r="A89" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="30" customHeight="1">
-      <c r="A90" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B90" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="30" customHeight="1">
-      <c r="A91" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B91" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="30" customHeight="1">
-      <c r="A92" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B92" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="30" customHeight="1">
-      <c r="A93" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B93" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="30" customHeight="1">
-      <c r="A94" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B94" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="30" customHeight="1">
-      <c r="A95" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B95" s="24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="30" customHeight="1">
-      <c r="A96" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="30" customHeight="1">
-      <c r="A97" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B97" s="25" t="s">
-        <v>195</v>
+      <c r="A75" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2944,12 +5274,607 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E75"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" customHeight="1">
+      <c r="A52" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" customHeight="1">
+      <c r="A53" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" customHeight="1">
+      <c r="A54" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" customHeight="1">
+      <c r="A55" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" customHeight="1">
+      <c r="A56" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" customHeight="1">
+      <c r="A57" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="38.25">
+      <c r="A58" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" customHeight="1">
+      <c r="A59" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" customHeight="1">
+      <c r="A60" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" customHeight="1">
+      <c r="A61" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" customHeight="1">
+      <c r="A62" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" customHeight="1">
+      <c r="A63" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" customHeight="1">
+      <c r="A64" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30" customHeight="1">
+      <c r="A65" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" customHeight="1">
+      <c r="A66" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" customHeight="1">
+      <c r="A67" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30" customHeight="1">
+      <c r="A68" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" customHeight="1">
+      <c r="A69" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30" customHeight="1">
+      <c r="A70" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" customHeight="1">
+      <c r="A71" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30" customHeight="1">
+      <c r="A72" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" customHeight="1">
+      <c r="A73" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30" customHeight="1">
+      <c r="A74" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" customHeight="1">
+      <c r="A75" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2996,7 +5921,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>203</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3004,7 +5929,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3023,10 +5948,706 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1">
+      <c r="A33" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1">
+      <c r="A34" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1">
+      <c r="A35" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1">
+      <c r="A36" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1">
+      <c r="A37" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1">
+      <c r="A38" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1">
+      <c r="A39" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1">
+      <c r="A40" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1">
+      <c r="A41" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1">
+      <c r="A42" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1">
+      <c r="A43" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1">
+      <c r="A44" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1">
+      <c r="A45" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1">
+      <c r="A46" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1">
+      <c r="A47" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1">
+      <c r="A48" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" customHeight="1">
+      <c r="A52" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" customHeight="1">
+      <c r="A53" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" customHeight="1">
+      <c r="A54" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" customHeight="1">
+      <c r="A55" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" customHeight="1">
+      <c r="A56" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" customHeight="1">
+      <c r="A57" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="25.5">
+      <c r="A58" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" customHeight="1">
+      <c r="A59" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" customHeight="1">
+      <c r="A60" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" customHeight="1">
+      <c r="A61" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" customHeight="1">
+      <c r="A62" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" customHeight="1">
+      <c r="A63" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" customHeight="1">
+      <c r="A64" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30" customHeight="1">
+      <c r="A65" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" customHeight="1">
+      <c r="A66" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" customHeight="1">
+      <c r="A67" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30" customHeight="1">
+      <c r="A68" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" customHeight="1">
+      <c r="A69" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30" customHeight="1">
+      <c r="A70" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" customHeight="1">
+      <c r="A71" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30" customHeight="1">
+      <c r="A72" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" customHeight="1">
+      <c r="A73" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30" customHeight="1">
+      <c r="A74" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>252</v>
+      </c>
       <c r="D14" s="6" t="s">
         <v>51</v>
       </c>
@@ -3035,10 +6656,12 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="22" t="s">
+        <v>285</v>
+      </c>
       <c r="D15" s="6" t="s">
         <v>51</v>
       </c>
@@ -3047,10 +6670,12 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="22" t="s">
+        <v>253</v>
+      </c>
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
@@ -3059,10 +6684,12 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="22" t="s">
+        <v>254</v>
+      </c>
       <c r="D17" s="6" t="s">
         <v>51</v>
       </c>
@@ -3071,10 +6698,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="22" t="s">
+        <v>255</v>
+      </c>
       <c r="D18" s="6" t="s">
         <v>132</v>
       </c>
@@ -3083,10 +6712,12 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="22" t="s">
+        <v>256</v>
+      </c>
       <c r="D19" s="6" t="s">
         <v>132</v>
       </c>
@@ -3095,10 +6726,12 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="22" t="s">
+        <v>257</v>
+      </c>
       <c r="D20" s="6" t="s">
         <v>132</v>
       </c>
@@ -3107,10 +6740,12 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="22" t="s">
+        <v>258</v>
+      </c>
       <c r="D21" s="6" t="s">
         <v>132</v>
       </c>
@@ -3119,10 +6754,12 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="22" t="s">
+        <v>290</v>
+      </c>
       <c r="D22" s="6" t="s">
         <v>132</v>
       </c>
@@ -3131,10 +6768,12 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="22" t="s">
+        <v>291</v>
+      </c>
       <c r="D23" s="6" t="s">
         <v>132</v>
       </c>
@@ -3143,10 +6782,12 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="22" t="s">
+        <v>292</v>
+      </c>
       <c r="D24" s="6" t="s">
         <v>69</v>
       </c>
@@ -3155,10 +6796,12 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="22" t="s">
+        <v>293</v>
+      </c>
       <c r="D25" s="6" t="s">
         <v>69</v>
       </c>
@@ -3167,302 +6810,1334 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="22" t="s">
+        <v>294</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="22" t="s">
+        <v>259</v>
+      </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="22" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="22" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="22" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="22" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="33" spans="1:2" ht="30" customHeight="1">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="22" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="34" spans="1:2" ht="30" customHeight="1">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="22" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="35" spans="1:2" ht="30" customHeight="1">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="22" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="36" spans="1:2" ht="30" customHeight="1">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="22" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="37" spans="1:2" ht="30" customHeight="1">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="22" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="38" spans="1:2" ht="30" customHeight="1">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="39" spans="1:2" ht="30" customHeight="1">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="40" spans="1:2" ht="30" customHeight="1">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="24"/>
+      <c r="B40" s="22" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="41" spans="1:2" ht="30" customHeight="1">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="24"/>
+      <c r="B41" s="22" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="42" spans="1:2" ht="30" customHeight="1">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="22" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="43" spans="1:2" ht="30" customHeight="1">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="24"/>
+      <c r="B43" s="22" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="44" spans="1:2" ht="30" customHeight="1">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="24"/>
+      <c r="B44" s="22" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="45" spans="1:2" ht="30" customHeight="1">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="22" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="46" spans="1:2" ht="30" customHeight="1">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="22" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="47" spans="1:2" ht="30" customHeight="1">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="22" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="48" spans="1:2" ht="30" customHeight="1">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="22" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="49" spans="1:2" ht="30" customHeight="1">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="24"/>
+      <c r="B49" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="50" spans="1:2" ht="30" customHeight="1">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="24"/>
+      <c r="B50" s="22" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="51" spans="1:2" ht="30" customHeight="1">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="24"/>
+      <c r="B51" s="22" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="52" spans="1:2" ht="30" customHeight="1">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="24"/>
+      <c r="B52" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="24"/>
+      <c r="B53" s="22" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="54" spans="1:2" ht="30" customHeight="1">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="24"/>
+      <c r="B54" s="22" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="55" spans="1:2" ht="30" customHeight="1">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="22" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="56" spans="1:2" ht="30" customHeight="1">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="22" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="57" spans="1:2" ht="30" customHeight="1">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="22" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="58" spans="1:2" ht="30" customHeight="1">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="22" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="59" spans="1:2" ht="30" customHeight="1">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="B59" s="24"/>
+      <c r="B59" s="22" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="60" spans="1:2" ht="30" customHeight="1">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="22" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="61" spans="1:2" ht="30" customHeight="1">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="B61" s="24"/>
+      <c r="B61" s="22" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="62" spans="1:2" ht="30" customHeight="1">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="B62" s="24"/>
+      <c r="B62" s="22" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="63" spans="1:2" ht="30" customHeight="1">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="22" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="64" spans="1:2" ht="30" customHeight="1">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="B64" s="24"/>
+      <c r="B64" s="22" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="65" spans="1:2" ht="30" customHeight="1">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B65" s="24"/>
+      <c r="B65" s="22" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="66" spans="1:2" ht="30" customHeight="1">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="22" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="67" spans="1:2" ht="30" customHeight="1">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="22" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="68" spans="1:2" ht="30" customHeight="1">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="B68" s="24"/>
+      <c r="B68" s="22" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="69" spans="1:2" ht="30" customHeight="1">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="22" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="70" spans="1:2" ht="30" customHeight="1">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="22" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="71" spans="1:2" ht="30" customHeight="1">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="B71" s="24"/>
+      <c r="B71" s="22" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="72" spans="1:2" ht="30" customHeight="1">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="B72" s="24"/>
+      <c r="B72" s="22" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="73" spans="1:2" ht="30" customHeight="1">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="B73" s="24"/>
+      <c r="B73" s="22" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="74" spans="1:2" ht="30" customHeight="1">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="24"/>
+      <c r="B74" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E97"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" customHeight="1">
+      <c r="A52" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" customHeight="1">
+      <c r="A53" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" customHeight="1">
+      <c r="A54" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" customHeight="1">
+      <c r="A55" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" customHeight="1">
+      <c r="A56" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" customHeight="1">
+      <c r="A57" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" customHeight="1">
+      <c r="A58" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" customHeight="1">
+      <c r="A59" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" customHeight="1">
+      <c r="A60" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" customHeight="1">
+      <c r="A61" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" customHeight="1">
+      <c r="A62" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" customHeight="1">
+      <c r="A63" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" customHeight="1">
+      <c r="A64" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30" customHeight="1">
+      <c r="A65" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" customHeight="1">
+      <c r="A66" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" customHeight="1">
+      <c r="A67" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30" customHeight="1">
+      <c r="A68" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" customHeight="1">
+      <c r="A69" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30" customHeight="1">
+      <c r="A70" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" customHeight="1">
+      <c r="A71" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30" customHeight="1">
+      <c r="A72" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" customHeight="1">
+      <c r="A73" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30" customHeight="1">
+      <c r="A74" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" customHeight="1">
+      <c r="A75" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30" customHeight="1">
+      <c r="A76" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" customHeight="1">
+      <c r="A77" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30" customHeight="1">
+      <c r="A78" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30" customHeight="1">
+      <c r="A79" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30" customHeight="1">
+      <c r="A80" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30" customHeight="1">
+      <c r="A81" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="30" customHeight="1">
+      <c r="A82" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30" customHeight="1">
+      <c r="A83" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30" customHeight="1">
+      <c r="A84" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" customHeight="1">
+      <c r="A85" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30" customHeight="1">
+      <c r="A86" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30" customHeight="1">
+      <c r="A87" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30" customHeight="1">
+      <c r="A88" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="30" customHeight="1">
+      <c r="A89" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30" customHeight="1">
+      <c r="A90" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="30" customHeight="1">
+      <c r="A91" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30" customHeight="1">
+      <c r="A92" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30" customHeight="1">
+      <c r="A93" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="30" customHeight="1">
+      <c r="A94" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="30" customHeight="1">
+      <c r="A95" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30" customHeight="1">
+      <c r="A96" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="30" customHeight="1">
+      <c r="A97" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
